--- a/2/УТка/Диаграммы и сервисные договоры.xlsx
+++ b/2/УТка/Диаграммы и сервисные договоры.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\УТка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B495C-8195-4B63-95F4-41589CAA7807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91439FB7-6BF8-43E4-B41E-4E3FB62E358D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="292">
   <si>
     <t>Группа исполнителей</t>
   </si>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>Обслуживание АО в складском отделе</t>
+  </si>
+  <si>
+    <t>Дата-центр Stels</t>
   </si>
 </sst>
 </file>
@@ -4965,59 +4968,6 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v xml:space="preserve">Количество обращений </v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Stels</v>
-          </cell>
-          <cell r="B12">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Shimano Inc.</v>
-          </cell>
-          <cell r="B13">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Microsoft Corporation</v>
-          </cell>
-          <cell r="B14">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>Decathlon S.A.</v>
-          </cell>
-          <cell r="B15">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>DHL Group</v>
-          </cell>
-          <cell r="B16">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Selectel</v>
-          </cell>
-          <cell r="B17">
-            <v>1</v>
-          </cell>
-        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -8099,7 +8049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF3822AC-C4CB-4694-9F11-2D34818C6A33}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -8485,8 +8435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A69FF9C8-D551-4635-A421-DFE38EED4F9A}">
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8546,7 +8496,7 @@
         <v>260</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
